--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\source\MEA\SA-extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l84291391\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAAF307-71ED-43D4-ADDE-048882C9662C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667D42D-6306-471D-8B73-85AB51B86A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -36,121 +36,119 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>渠道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品链接</t>
+    <t>沙特</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 14 Pro 12+512</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 14 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 13 Pro 12+512</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 13  12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</t>
+  </si>
+  <si>
+    <t>HUAWEI Pura 80 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 FE 8+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</t>
+  </si>
+  <si>
+    <t>SAMSUNG A56 8+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</t>
+  </si>
+  <si>
+    <t>XIAOMI 15T Pro 12+512</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</t>
+  </si>
+  <si>
+    <t>XIAOMI 15T 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</t>
+  </si>
+  <si>
+    <t>OPPO Reno 13 12+512</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</t>
+  </si>
+  <si>
+    <t>OPPO Reno 14F 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</t>
+  </si>
+  <si>
+    <t>Honor X9D 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</t>
+  </si>
+  <si>
+    <t>Honor X9C 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</t>
+  </si>
+  <si>
+    <t>Honor 400 12+256</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</t>
+  </si>
+  <si>
+    <t>Honor 400 Pro 12+512</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>channel</t>
   </si>
   <si>
     <t>sku</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙特</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 14 Pro 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 14 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 13 Pro 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 13  12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</t>
-  </si>
-  <si>
-    <t>HUAWEI Pura 80 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</t>
-  </si>
-  <si>
-    <t>SAMSUNG S25 FE 8+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</t>
-  </si>
-  <si>
-    <t>SAMSUNG A56 8+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</t>
-  </si>
-  <si>
-    <t>XIAOMI 15T Pro 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</t>
-  </si>
-  <si>
-    <t>XIAOMI 15T 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</t>
-  </si>
-  <si>
-    <t>OPPO Reno 13 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</t>
-  </si>
-  <si>
-    <t>OPPO Reno 14F 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</t>
-  </si>
-  <si>
-    <t>Honor X9D 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</t>
-  </si>
-  <si>
-    <t>Honor X9C 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</t>
-  </si>
-  <si>
-    <t>Honor 400 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</t>
-  </si>
-  <si>
-    <t>Honor 400 Pro 12+512</t>
+  </si>
+  <si>
+    <t>product_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,11 +167,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -524,7 +517,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -537,226 +530,226 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l84291391\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\source\MEA\SA_Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667D42D-6306-471D-8B73-85AB51B86A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D88FC1-D658-48AB-A11C-9D63EC85CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>沙特</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</t>
   </si>
   <si>
@@ -54,84 +51,6 @@
     <t>HUAWEI nova 14 12+256</t>
   </si>
   <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 13 Pro 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</t>
-  </si>
-  <si>
-    <t>HUAWEI nova 13  12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</t>
-  </si>
-  <si>
-    <t>HUAWEI Pura 80 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</t>
-  </si>
-  <si>
-    <t>SAMSUNG S25 FE 8+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</t>
-  </si>
-  <si>
-    <t>SAMSUNG A56 8+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</t>
-  </si>
-  <si>
-    <t>XIAOMI 15T Pro 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</t>
-  </si>
-  <si>
-    <t>XIAOMI 15T 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</t>
-  </si>
-  <si>
-    <t>OPPO Reno 13 12+512</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</t>
-  </si>
-  <si>
-    <t>OPPO Reno 14F 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</t>
-  </si>
-  <si>
-    <t>Honor X9D 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</t>
-  </si>
-  <si>
-    <t>Honor X9C 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</t>
-  </si>
-  <si>
-    <t>Honor 400 12+256</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</t>
-  </si>
-  <si>
-    <t>Honor 400 Pro 12+512</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -142,6 +61,25 @@
   </si>
   <si>
     <t>product_link</t>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jarir</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+256</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-jpm1749.html?childSku=650945</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-jpm1724.html?childSku=666740</t>
   </si>
 </sst>
 </file>
@@ -514,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -530,16 +468,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -547,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -561,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -575,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -589,171 +527,18 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF35CF87-6BF3-4DA3-B25B-613024EDD142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268C79C-7B6A-4C76-A98B-2D2C4F840A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
+    <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="176">
   <si>
     <t>沙特</t>
   </si>
@@ -346,6 +346,222 @@
   </si>
   <si>
     <t>HUAWEI Mate XT 16+1024</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Starlight 40mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Starlight 44mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Midnight 40mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Midnight 44mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Purple 46mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Black 42mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Black 46mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Ultra 3 Black 49mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch 5 Beige 42mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch 5 Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch D2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Pro Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Pro Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Black 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Brown 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Green 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Grey 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Brown 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Titanium 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Purple 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 White 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Ultimate 2 Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Active Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Lite Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Fit 3 Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Fit 3 Gray</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Classic Black 46mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Gray 44mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Graphite 40mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 White 44mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 White 40mm</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666653.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666630.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666622.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666639.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-46mm-smartwatch-666701.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-42-smartwatch-666631.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-46-smartwatch-666641.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-ultra-3-smartwatch-666649.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-5-42mm-smartwatch-657335.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-5-46mm-smartwatch-657337.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-d2-smartwatch-647407.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657289.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657300.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657302.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657313.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665667.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665676.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665674.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665681.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665677.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665684.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665689.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665688.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665671.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665672.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-ultimate-2-smartwatch-670486.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-active-smartwatch-642243.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-smartwatch-649129.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-lite-smartwatch-642245.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-3-smartwatch-634727.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-fit-3-smartwatch-631631.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch8-classic-46-smartwatch-662010.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662006.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662000.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662008.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</t>
   </si>
 </sst>
 </file>
@@ -375,12 +591,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,11 +619,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1544,6 +1769,510 @@
         <v>39</v>
       </c>
     </row>
+    <row r="59" spans="1:4" s="2" customFormat="1">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="2" customFormat="1">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="2" customFormat="1">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="2" customFormat="1">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="2" customFormat="1">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="2" customFormat="1">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="2" customFormat="1">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="2" customFormat="1">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="2" customFormat="1">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="2" customFormat="1">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="2" customFormat="1">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="2" customFormat="1">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="2" customFormat="1">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="2" customFormat="1">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="2" customFormat="1">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="2" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="2" customFormat="1">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="2" customFormat="1">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="2" customFormat="1">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="2" customFormat="1">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="2" customFormat="1">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="2" customFormat="1">
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="2" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="2" customFormat="1">
+      <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="2" customFormat="1">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="2" customFormat="1">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="2" customFormat="1">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="2" customFormat="1">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="2" customFormat="1">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="2" customFormat="1">
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="2" customFormat="1">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="2" customFormat="1">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="2" customFormat="1">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">
     <sortCondition ref="B2:B58"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268C79C-7B6A-4C76-A98B-2D2C4F840A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4652FE9-EC76-4AD2-89F3-CD246AD32082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -619,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +630,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -990,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1007,10 +1013,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1018,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1035,10 +1041,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1046,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1063,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1074,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1091,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1102,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1119,10 +1125,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1130,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1147,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1158,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1175,10 +1181,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1186,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1203,10 +1209,10 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1214,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1231,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1242,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1259,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1270,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1287,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1298,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1315,10 +1321,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1326,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1343,10 +1349,10 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1354,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1371,10 +1377,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1382,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1399,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1410,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1427,10 +1433,10 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1438,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1455,10 +1461,10 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1466,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1480,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1497,10 +1503,10 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1508,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1525,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1536,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1553,24 +1559,24 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>40</v>
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1578,27 +1584,27 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1606,27 +1612,27 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1634,27 +1640,27 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>29</v>
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1662,27 +1668,27 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>31</v>
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1690,27 +1696,27 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1718,27 +1724,27 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1746,212 +1752,212 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="3" customFormat="1">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
         <v>91</v>
       </c>
-      <c r="D57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="2" customFormat="1">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="2" customFormat="1">
-      <c r="A64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="2" customFormat="1">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="2" customFormat="1">
-      <c r="A70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="2" customFormat="1">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="2" customFormat="1">
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="3" customFormat="1">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -1959,27 +1965,27 @@
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1">
+    <row r="73" spans="1:4" s="3" customFormat="1">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="3" customFormat="1">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1">
+    <row r="75" spans="1:4" s="3" customFormat="1">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
+    <row r="76" spans="1:4" s="3" customFormat="1">
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1">
+    <row r="77" spans="1:4" s="3" customFormat="1">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1">
+    <row r="78" spans="1:4" s="3" customFormat="1">
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1">
+    <row r="79" spans="1:4" s="3" customFormat="1">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1">
+    <row r="80" spans="1:4" s="3" customFormat="1">
       <c r="A80" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1">
+    <row r="81" spans="1:4" s="3" customFormat="1">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1">
+    <row r="82" spans="1:4" s="3" customFormat="1">
       <c r="A82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1">
+    <row r="83" spans="1:4" s="3" customFormat="1">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1">
+    <row r="84" spans="1:4" s="3" customFormat="1">
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1">
+    <row r="85" spans="1:4" s="3" customFormat="1">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1">
+    <row r="86" spans="1:4" s="3" customFormat="1">
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1">
+    <row r="87" spans="1:4" s="3" customFormat="1">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1">
+    <row r="88" spans="1:4" s="3" customFormat="1">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1">
+    <row r="89" spans="1:4" s="3" customFormat="1">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1">
+    <row r="90" spans="1:4" s="3" customFormat="1">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1">
+    <row r="91" spans="1:4" s="3" customFormat="1">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1">
+    <row r="92" spans="1:4" s="3" customFormat="1">
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1">
+    <row r="93" spans="1:4" s="3" customFormat="1">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1">
+    <row r="94" spans="1:4" s="3" customFormat="1">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -2274,9 +2280,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D58">
-    <sortCondition ref="B2:B58"/>
-    <sortCondition ref="C2:C58"/>
+  <autoFilter ref="A1:D94" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+    <sortCondition ref="C2:C94"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4200CBC-45AE-43B5-BC83-6EBF578FE8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA13EA5-B74D-43C4-B77F-D275496AEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,11 +37,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="264">
   <si>
     <t>沙特</t>
   </si>
   <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 14 Pro 12+512</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 14 12+256</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -57,9 +69,504 @@
     <t>Jarir</t>
   </si>
   <si>
+    <t>SAMSUNG S25 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+256</t>
+  </si>
+  <si>
     <t>Extra</t>
   </si>
   <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666717.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-1-tb-cosmic-orange/p/100460359</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 13 Pro 12+512</t>
+  </si>
+  <si>
+    <t>HUAWEI nova 13  12+256</t>
+  </si>
+  <si>
+    <t>HUAWEI Pura 80 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 FE 8+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG A56 8+256</t>
+  </si>
+  <si>
+    <t>XIAOMI 15T Pro 12+512</t>
+  </si>
+  <si>
+    <t>XIAOMI 15T 12+256</t>
+  </si>
+  <si>
+    <t>OPPO Reno 13 12+512</t>
+  </si>
+  <si>
+    <t>OPPO Reno 14F 12+256</t>
+  </si>
+  <si>
+    <t>HONOR X9D 12+256</t>
+  </si>
+  <si>
+    <t>HONOR X9C 12+256</t>
+  </si>
+  <si>
+    <t>HONOR 400 12+256</t>
+  </si>
+  <si>
+    <t>HONOR 400 Pro 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S24 Ultra 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG S24 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 12+128</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Plus 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Plus 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S25 Ultra 12+256</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+512</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 17 Pro 12+1024</t>
+  </si>
+  <si>
+    <t>HONOR Magic 8 Pro 12+512</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi 15 12+512</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi 15 Ultra 16+512</t>
+  </si>
+  <si>
+    <t>HUAWEI Pura 80 Pro 12+512</t>
+  </si>
+  <si>
+    <t>HUAWEI Pura 80 Ultra 16+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S24 Plus 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG S24 Plus 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG S24 Ultra 12+1024</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi 15 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>HUAWEI Pura 80 Ultra 12+512</t>
+  </si>
+  <si>
+    <t>SAMSUNG Z Fold 7 12+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG Z Fold 7 12+512</t>
+  </si>
+  <si>
+    <t>HONOR Magic V5 16+512</t>
+  </si>
+  <si>
+    <t>HUAWEI Mate XT 16+1024</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Starlight 40mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Starlight 44mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Midnight 40mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch SE 3 Midnight 44mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Purple 46mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Black 42mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Series 11 Black 46mm</t>
+  </si>
+  <si>
+    <t>APPLE Apple Watch Ultra 3 Black 49mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch 5 Beige 42mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch 5 Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch D2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Pro Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Fit 4 Pro Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Black 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Brown 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Green 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Grey 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Black 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Brown 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Pro Titanium 46mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 Purple 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch GT 6 White 41mm</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei Watch Ultimate 2 Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Active Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Black</t>
+  </si>
+  <si>
+    <t>REDMI Redmi Watch 5 Lite Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Fit 3 Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Fit 3 Gray</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Classic Black 46mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Gray 44mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 Graphite 40mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 White 44mm</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Watch8 White 40mm</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666653.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666630.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666622.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666639.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-46mm-smartwatch-666701.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-42-smartwatch-666631.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-series-11-46-smartwatch-666641.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-watch-ultra-3-smartwatch-666649.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-5-42mm-smartwatch-657335.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-5-46mm-smartwatch-657337.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-d2-smartwatch-647407.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657289.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657300.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657302.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657313.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665667.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665676.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665674.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665681.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665677.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665684.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665689.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665688.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665671.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665672.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-ultimate-2-smartwatch-670486.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-active-smartwatch-642243.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-smartwatch-649129.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-lite-smartwatch-642245.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-watch-fit-3-smartwatch-634727.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-fit-3-smartwatch-631631.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch8-classic-46-smartwatch-662010.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662006.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662000.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662008.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</t>
+  </si>
+  <si>
     <t>APPLE iPad Pro M5 12+256，WiFi，13"</t>
   </si>
   <si>
@@ -99,9 +606,6 @@
     <t>APPLE iPad mini 8+256，WiFi，8.3"</t>
   </si>
   <si>
-    <t>XIAOMI Redmi Pad 2  8+256 带皮套，WiFi，11"</t>
-  </si>
-  <si>
     <t>HONOR Honor Pad X9A 8+128 皮套，WiFi，11.5"</t>
   </si>
   <si>
@@ -235,9 +739,6 @@
   </si>
   <si>
     <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/Xiaomi-redmi-pad-2-tablet-pc-jpm1667.html?childSku=660370</t>
   </si>
   <si>
     <t>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</t>
@@ -357,12 +858,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,11 +886,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -703,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -719,16 +1229,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -736,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -750,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -764,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -778,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -792,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -806,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -820,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -834,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -848,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -862,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -876,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -890,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
@@ -904,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -918,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -932,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -946,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -960,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -974,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -988,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1002,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1016,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1030,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1044,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1058,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1072,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1086,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1100,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1114,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1128,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1142,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1156,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1170,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1184,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1198,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1212,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1226,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1240,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1254,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
         <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1268,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1282,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1296,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1310,27 +1820,27 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>92</v>
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1338,27 +1848,27 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1366,244 +1876,1316 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="s">
         <v>51</v>
       </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="2" customFormat="1">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" s="2" customFormat="1">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="1:4" s="2" customFormat="1">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4" s="2" customFormat="1">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" s="2" customFormat="1">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" s="2" customFormat="1">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" s="2" customFormat="1">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" s="2" customFormat="1">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" s="2" customFormat="1">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:4" s="2" customFormat="1">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:4" s="2" customFormat="1">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="1:4" s="2" customFormat="1">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="1:4" s="2" customFormat="1">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="1:4" s="2" customFormat="1">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="1:4" s="2" customFormat="1">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="1:4" s="2" customFormat="1">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-    </row>
-    <row r="88" spans="1:4" s="2" customFormat="1">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" s="2" customFormat="1">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:4" s="2" customFormat="1">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:4" s="2" customFormat="1">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" s="2" customFormat="1">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="3" customFormat="1">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="3" customFormat="1">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="3" customFormat="1">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="3" customFormat="1">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="3" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="3" customFormat="1">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="3" customFormat="1">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="3" customFormat="1">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="3" customFormat="1">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="3" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="3" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="3" customFormat="1">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="3" customFormat="1">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="3" customFormat="1">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="3" customFormat="1">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="3" customFormat="1">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="3" customFormat="1">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="3" customFormat="1">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="3" customFormat="1">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>192</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>193</v>
+      </c>
+      <c r="D113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>204</v>
+      </c>
+      <c r="D124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>210</v>
+      </c>
+      <c r="D130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>212</v>
+      </c>
+      <c r="D132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA13EA5-B74D-43C4-B77F-D275496AEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4652FE9-EC76-4AD2-89F3-CD246AD32082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="176">
   <si>
     <t>沙特</t>
   </si>
@@ -565,270 +565,6 @@
   </si>
   <si>
     <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</t>
-  </si>
-  <si>
-    <t>APPLE iPad Pro M5 12+256，WiFi，13"</t>
-  </si>
-  <si>
-    <t>APPLE iPad Pro M5 12+256，WiFi，11"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</t>
-  </si>
-  <si>
-    <t>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</t>
-  </si>
-  <si>
-    <t>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</t>
-  </si>
-  <si>
-    <t>APPLE iPad Air M3 8+256，WiFi，11"</t>
-  </si>
-  <si>
-    <t>APPLE iPad Air M3 8+128，WiFi，11"</t>
-  </si>
-  <si>
-    <t>APPLE  iPad A16 6+128，LTE，11“</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</t>
-  </si>
-  <si>
-    <t>APPLE iPad mini 8+128，WiFi，8.3"</t>
-  </si>
-  <si>
-    <t>APPLE iPad mini 8+256，WiFi，8.3"</t>
-  </si>
-  <si>
-    <t>HONOR Honor Pad X9A 8+128 皮套，WiFi，11.5"</t>
-  </si>
-  <si>
-    <t>HONOR Honor Pad X8A 4+128 皮套，WiFi，11"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A11+ /</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab A9+ 8+128，WiFi，11”</t>
-  </si>
-  <si>
-    <t>APPLE  iPad A16 6+128，WiFi，11"</t>
-  </si>
-  <si>
-    <t>APPLE  iPad A16 8+256，WiFi，11"</t>
-  </si>
-  <si>
-    <t>XIAOMI Xiaomi Pad 7 8+256 带皮套，WiFi，11.16"</t>
-  </si>
-  <si>
-    <t>HONOR Magic Pad2 12+256，WiFi，12.3"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE+ 8+128 带笔，WiFi，10.9"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE+ 8+256 带笔，WiFi，10.9"</t>
-  </si>
-  <si>
-    <t>HONOR Honor Pad 10 8+256 带笔键，柔光，WiFi，12.1"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE 12+256 带笔，WiFi，10.9"</t>
-  </si>
-  <si>
-    <t>SAMSUNG Galaxy Tab S10 FE 8+128 带笔，WiFi，10.9"</t>
-  </si>
-  <si>
-    <t>HUAWEI MateBook 14 U7-155H，16GB，1TB，Win11，2880×1920</t>
-  </si>
-  <si>
-    <t>ASUS ZenBook 14 R7 8840HS，16GB，1TB，Win11，2880 x 1800‌</t>
-  </si>
-  <si>
-    <t>APPLE MacBook Air 15 M4，16GB，512GB，macOS，2880×1864</t>
-  </si>
-  <si>
-    <t>HONOR MagicBook Art 14 U7-255H，32GB，1TB，Win11，3120×2080</t>
-  </si>
-  <si>
-    <t>HUAWEI MateBook 14 i5-13420H，16GB，512GB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>APPLE MacBook Air 13  M4，16GB，512GB，macOS，2560×1664</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Pro 5 U7-155H，16GB，512GB，Win11，2048 X 1280</t>
-  </si>
-  <si>
-    <t>HP HP Pavilion 16 U7-155U，16GB 1TB，Win11，1920x1200</t>
-  </si>
-  <si>
-    <t>ASUS Vivobook S16 i7-13620H，16GB，1TB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>HONOR MagicBook Pro 14 U5-225H，32GB，1TB，Win11，3120×2080</t>
-  </si>
-  <si>
-    <t>HONOR MagicBook X 14 i5-13420H，16GB，512GB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 5 14 i7-13620H，24GB，1TB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>HP HP Pavilion Plus 14 U5-125H，16GB，512GB，Win11，2880×1800</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 5 14 Snapdragon X Plus，16GB，1TB，Win11，1920×1200‌</t>
-  </si>
-  <si>
-    <t>HUAWEI MateBook D 16 i5-13420H，16GB 512GB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</t>
-  </si>
-  <si>
-    <t>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-jpm1645.html?childSku=667699</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-jpm1647.html?childSku=667179</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-jpm1424.html?childSku=654181</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/Xiaomi-Xiaomi-pad-7-tablet-pc-653920.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicpad2-tablet-pc-jpm1659.html?childSku=641860</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-jpm1650.html?childSku=656238</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-jpm1651.html?childSku=656188</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-mateBook-laptops-jpm1622.html?childSku=638523</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/asus-laptops-642879.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-macBook-air-laptops-jpm1427.html?childSku=654298</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicBook-art-laptops-jpm1619.html?childSku=665780</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-631440.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-macBook-air-laptops-jpm1427.html?childSku=654289</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-pavilion-laptops-jpm1631.html?childSku=641161</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/asus-asus-vivoBook-s16-laptops-666555.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicBook-pro-laptops-657780.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicBook-x14-laptops-663706.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-mateBook-d-laptops-jpm1620.html?childSku=631589</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-jpm1630.html?childSku=634893</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-632176.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-jpm1617.html?childSku=653502</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-jpm1616.html?childSku=623278</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1246,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1260,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1274,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1288,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1302,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1316,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1330,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1344,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1358,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1372,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1386,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1400,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1414,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1428,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1442,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1456,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1470,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1484,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1498,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1512,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1526,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1540,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1554,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1568,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1582,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1596,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1610,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1624,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1638,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1652,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1666,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1680,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1694,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1708,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1722,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1736,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1750,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1764,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1778,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1792,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1806,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1820,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2264,17 +2000,17 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="3" customFormat="1">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" t="s">
-        <v>221</v>
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="3" customFormat="1">
@@ -2285,24 +2021,24 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" t="s">
-        <v>222</v>
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1">
@@ -2313,24 +2049,24 @@
         <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" t="s">
-        <v>223</v>
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="3" customFormat="1">
@@ -2341,24 +2077,24 @@
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>179</v>
-      </c>
-      <c r="D81" t="s">
-        <v>224</v>
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="3" customFormat="1">
@@ -2369,24 +2105,24 @@
         <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>225</v>
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1">
@@ -2397,24 +2133,24 @@
         <v>9</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" t="s">
-        <v>226</v>
+      <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1">
@@ -2425,24 +2161,24 @@
         <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>227</v>
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1">
@@ -2453,24 +2189,24 @@
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="3" customFormat="1">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" t="s">
-        <v>228</v>
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="3" customFormat="1">
@@ -2481,24 +2217,24 @@
         <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" t="s">
-        <v>229</v>
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1">
@@ -2509,24 +2245,24 @@
         <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" t="s">
-        <v>230</v>
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1">
@@ -2537,657 +2273,17 @@
         <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" t="s">
-        <v>186</v>
-      </c>
-      <c r="D95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>180</v>
-      </c>
-      <c r="D97" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" t="s">
-        <v>187</v>
-      </c>
-      <c r="D99" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>188</v>
-      </c>
-      <c r="D101" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D108" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>189</v>
-      </c>
-      <c r="D109" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" t="s">
-        <v>190</v>
-      </c>
-      <c r="D110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>191</v>
-      </c>
-      <c r="D111" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>193</v>
-      </c>
-      <c r="D113" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="s">
-        <v>196</v>
-      </c>
-      <c r="D116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>197</v>
-      </c>
-      <c r="D117" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>198</v>
-      </c>
-      <c r="D118" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>200</v>
-      </c>
-      <c r="D120" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>203</v>
-      </c>
-      <c r="D123" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>204</v>
-      </c>
-      <c r="D124" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>205</v>
-      </c>
-      <c r="D125" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="s">
-        <v>206</v>
-      </c>
-      <c r="D126" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>207</v>
-      </c>
-      <c r="D127" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>208</v>
-      </c>
-      <c r="D128" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>209</v>
-      </c>
-      <c r="D129" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>210</v>
-      </c>
-      <c r="D130" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" t="s">
-        <v>211</v>
-      </c>
-      <c r="D131" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="s">
-        <v>212</v>
-      </c>
-      <c r="D132" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" t="s">
-        <v>213</v>
-      </c>
-      <c r="D133" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="s">
-        <v>215</v>
-      </c>
-      <c r="D135" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="s">
-        <v>216</v>
-      </c>
-      <c r="D136" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="s">
-        <v>217</v>
-      </c>
-      <c r="D137" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>218</v>
-      </c>
-      <c r="D138" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>219</v>
-      </c>
-      <c r="D139" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="s">
-        <v>220</v>
-      </c>
-      <c r="D140" t="s">
-        <v>263</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D94" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
+    <sortCondition ref="C2:C94"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4652FE9-EC76-4AD2-89F3-CD246AD32082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852B2E7-E3CD-416E-9E7E-692812DEE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="268">
   <si>
     <t>沙特</t>
   </si>
@@ -565,6 +565,282 @@
   </si>
   <si>
     <t>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</t>
+  </si>
+  <si>
+    <t>APPLE iPad Pro M5 12+256，WiFi，13"</t>
+  </si>
+  <si>
+    <t>APPLE iPad Pro M5 12+256，WiFi，11"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</t>
+  </si>
+  <si>
+    <t>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</t>
+  </si>
+  <si>
+    <t>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</t>
+  </si>
+  <si>
+    <t>APPLE iPad Air M3 8+256，WiFi，11"</t>
+  </si>
+  <si>
+    <t>APPLE iPad Air M3 8+128，WiFi，11"</t>
+  </si>
+  <si>
+    <t>APPLE  iPad A16 6+128，LTE，11“</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</t>
+  </si>
+  <si>
+    <t>APPLE iPad mini 8+128，WiFi，8.3"</t>
+  </si>
+  <si>
+    <t>APPLE iPad mini 8+256，WiFi，8.3"</t>
+  </si>
+  <si>
+    <t>HONOR Honor Pad X9A 8+128 皮套，WiFi，11.5"</t>
+  </si>
+  <si>
+    <t>HONOR Honor Pad X8A 4+128 皮套，WiFi，11"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A11+ 6+128</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A11+ 8+256</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab A9+ 8+128，WiFi，11”</t>
+  </si>
+  <si>
+    <t>APPLE  iPad A16 6+128，WiFi，11"</t>
+  </si>
+  <si>
+    <t>APPLE  iPad A16 8+256，WiFi，11"</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Pad 7 8+256 带皮套，WiFi，11.16"</t>
+  </si>
+  <si>
+    <t>HONOR Magic Pad2 12+256，WiFi，12.3"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE+ 8+128 带笔，WiFi，10.9"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE+ 8+256 带笔，WiFi，10.9"</t>
+  </si>
+  <si>
+    <t>HONOR Honor Pad 10 8+256 带笔键，柔光，WiFi，12.1"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE 12+256 带笔，WiFi，10.9"</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy Tab S10 FE 8+128 带笔，WiFi，10.9"</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14 U7-155H，16GB，1TB，Win11，2880×1920</t>
+  </si>
+  <si>
+    <t>ASUS ZenBook 14 R7 8840HS，16GB，1TB，Win11，2880 x 1800‌</t>
+  </si>
+  <si>
+    <t>APPLE MacBook Air 15 M4，16GB，512GB，macOS，2880×1864</t>
+  </si>
+  <si>
+    <t>HONOR MagicBook Art 14 U7-255H，32GB，1TB，Win11，3120×2080</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook 14 i5-13420H，16GB，512GB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>APPLE MacBook Air 13  M4，16GB，512GB，macOS，2560×1664</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Pro 5 U7-155H，16GB，512GB，Win11，2048 X 1280</t>
+  </si>
+  <si>
+    <t>HP HP Pavilion 16 U7-155U，16GB 1TB，Win11，1920x1200</t>
+  </si>
+  <si>
+    <t>ASUS Vivobook S16 i7-13620H，16GB，1TB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>HONOR MagicBook Pro 14 U5-225H，32GB，1TB，Win11，3120×2080</t>
+  </si>
+  <si>
+    <t>HONOR MagicBook X 14 i5-13420H，16GB，512GB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Slim 5 14 i7-13620H，24GB，1TB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>HP HP Pavilion Plus 14 U5-125H，16GB，512GB，Win11，2880×1800</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Slim 5 14 Snapdragon X Plus，16GB，1TB，Win11，1920×1200‌</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook D 16 i5-13420H，16GB 512GB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</t>
+  </si>
+  <si>
+    <t>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670881.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670891.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-661473.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654179.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654188.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-xiaomi-pad-7-tablet-pc-653920.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-tablet-pc-641860.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656238.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656224.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656188.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-638524.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/asus-laptops-642879.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654298.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-art-laptops-665780.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-631440.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654289.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-pavilion-laptops-641161.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/asus-asus-vivobook-s16-laptops-666555.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-pro-laptops-657780.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-x14-laptops-663706.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-631589.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-634893.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-632176.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-653502.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-623278.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1566,437 +1842,437 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="3" customFormat="1">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" s="3" customFormat="1">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="3" customFormat="1">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="62" spans="1:4" s="3" customFormat="1">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="3" customFormat="1">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="64" spans="1:4" s="3" customFormat="1">
-      <c r="A64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="66" spans="1:4" s="3" customFormat="1">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="3" customFormat="1">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="68" spans="1:4" s="3" customFormat="1">
-      <c r="A68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="3" customFormat="1">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="70" spans="1:4" s="3" customFormat="1">
-      <c r="A70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="3" customFormat="1">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="3" customFormat="1">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="72" spans="1:4" s="3" customFormat="1">
-      <c r="A72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="74" spans="1:4" s="3" customFormat="1">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>155</v>
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="3" customFormat="1">
@@ -2007,24 +2283,24 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="3" customFormat="1">
-      <c r="A76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>157</v>
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1">
@@ -2035,24 +2311,24 @@
         <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>159</v>
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1">
@@ -2063,24 +2339,24 @@
         <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="3" customFormat="1">
-      <c r="A80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>161</v>
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1">
@@ -2091,24 +2367,24 @@
         <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="3" customFormat="1">
-      <c r="A82" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1">
@@ -2119,24 +2395,24 @@
         <v>9</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1">
-      <c r="A84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>165</v>
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1">
@@ -2147,24 +2423,24 @@
         <v>9</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>167</v>
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1">
@@ -2175,24 +2451,24 @@
         <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1">
-      <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>169</v>
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="3" customFormat="1">
@@ -2203,24 +2479,24 @@
         <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="3" customFormat="1">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>171</v>
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1">
@@ -2231,24 +2507,24 @@
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>173</v>
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1">
@@ -2259,31 +2535,672 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="3" customFormat="1">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="3" customFormat="1">
-      <c r="A94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>205</v>
+      </c>
+      <c r="D124" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>210</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>211</v>
+      </c>
+      <c r="D130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D140" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
-    <sortCondition ref="C2:C94"/>
-  </sortState>
+  <autoFilter ref="A1:D140" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852B2E7-E3CD-416E-9E7E-692812DEE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523CDFB-3038-4672-9E38-7AB8CADB7ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="469">
   <si>
     <t>沙特</t>
   </si>
@@ -841,6 +841,609 @@
   </si>
   <si>
     <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
+  </si>
+  <si>
+    <t>Vmall</t>
+  </si>
+  <si>
+    <t>NOON</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Rose Gold</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Green</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Pink</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Purple</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open Blue</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open Diamond</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open White</t>
+  </si>
+  <si>
+    <t>BOSE Bose QC ULTRA  White</t>
+  </si>
+  <si>
+    <t>BOSE Bose QC ULTRA  Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Pro White</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Pro Silver</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 White</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Silver</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds 3FE Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds 3FE Grey</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds Core Black</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds Core White</t>
+  </si>
+  <si>
+    <t>JBL JBL Tune Beam 2 Black</t>
+  </si>
+  <si>
+    <t>JBL JBL Tune Beam 2 White</t>
+  </si>
+  <si>
+    <t>JBL JBL Tune Beam 2 Blue</t>
+  </si>
+  <si>
+    <t>JBL JBL Live pro 2 Black</t>
+  </si>
+  <si>
+    <t>JBL JBL Live pro 2 Blue</t>
+  </si>
+  <si>
+    <t>JBL JBL Wave 200 Black</t>
+  </si>
+  <si>
+    <t>JBL JBL Wave 200 Purple</t>
+  </si>
+  <si>
+    <t>JBL JBL Wave 200 White</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 Black</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 Blue</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 Pink</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 White</t>
+  </si>
+  <si>
+    <t>APPLE AirPods Pro 2 White</t>
+  </si>
+  <si>
+    <t>APPLE AirPods Pro 3 White</t>
+  </si>
+  <si>
+    <t>APPLE AirPods 4 White</t>
+  </si>
+  <si>
+    <t>APPLE AirPods 4 ANC White</t>
+  </si>
+  <si>
+    <t>SONY SONY WF1000XM5 Black</t>
+  </si>
+  <si>
+    <t>SONY SONY WF1000XM5 Silver</t>
+  </si>
+  <si>
+    <t>SHOKZ SHOKZ OpenFit Air Black</t>
+  </si>
+  <si>
+    <t>SHOKZ SHOKZ OpenFit Air White</t>
+  </si>
+  <si>
+    <t>SHOKZ SHOKZ OpenFit Beige</t>
+  </si>
+  <si>
+    <t>SHOKZ SHOKZ OpenFit 2 Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4 Pro Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4 Pro White</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4NC  Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4NC  Blue</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4NC  White</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 5 Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 5 Blue</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 5 White</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P20i Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P20i Blue</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P20i Pink</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P20i White</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P31i Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P31i Blue</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P31i Pink</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P31i White</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P40i Black</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P40i Blue</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P40i White</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Pro Black</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Pro Purple</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Pro White</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi BUDS 6 lite Black</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi BUDS 6 lite White</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Active White</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Active Pink</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi Redmi Buds 6 Active Blue</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-purple/N70028123V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-black/N70028165V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-beige/N70060911V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-groundbreaking-aesthetic-design-feather-light-wearing-open-ear-listening-ai-crystal-clear-call-long-battery-life-dual-device-connections-rose-gold/N70132530V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZD1F10632D037E5E5F209Z/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZE3EBB1E8EF264033CC22Z/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/Z738EC456AB46338E9045Z/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-black/N70170051V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-purple/N70170052V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-white/N70170050V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-black/N70162340V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-grey/N70162341V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-green/N70162342V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-white/N70203522V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-black/N70203523V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-beige/N70138900V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-black/N70138899V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-white/N53425582A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-blue/N53425520A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-black/N70075990V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-ceramic-purple/N70083047V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-black/N70047468V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-diamond/N70110405V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-white-smoke/N70047467V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-white/N70009785V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-black/N70008886V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-white-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-white/N70091992V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-silver-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-silver/N70094986V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-white-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-white/N70091990V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-silver-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-silver/N70090068V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-black/N70213175V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-grey/N70213174V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-black/N70187480V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-white/N70187481V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbeam2wht-black/N70129535V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2wht-white/N70129537V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2tqe-tqe/N70129536V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-black/N53409468A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-blue/N53409919A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-black/N51642609A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-purple/N51642611A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-white/N51641711A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blk-black/N70129504V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blu-blue/N70129505V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2pik-pink/N70129506V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2wht-white/N70129507V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-pro-2-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-aid-feature-transparency-personalized-spatial-audio-high-fidelity-sound-h2-chip-usb-c-charging-white/N53437240A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-pro-3-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-test-hearing-aid-hearing-protection-features-heart-rate-sensing-during-workouts-live-translation-high-fidelity-sound-h2-chip-usb-c-charging-white/N70212301V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-4-wireless-earbuds-bluetooth-headphones-personalized-spatial-audio-sweat-and-water-resistant-usb-c-charging-case-h2-chip-up-to-30-hours-of-battery-life-effortless-setup-for-iphone-white/N70108364V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-4-anc-wireless-earbuds-bluetooth-headphones-with-active-noise-cancellation-adaptive-audio-transparency-mode-personalized-spatial-audio-usb-c-charging-case-wireless-charging-h2-chip-white/N70108365V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-black/N53423373A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-platinum-silver/N53423374A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-black/N70169028V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-white/N70169076V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-beige/N70093347V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/new-openfit-2-open-ear-headphones-true-wireless-bluetooth-earphones-with-microphone-earhook-earbuds-with-48-hours-of-playtime-fast-charging-ip55-water-resistant-with-carrying-bag-black/N70209176V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-black/N70146680V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/soundcore-liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-white/N70146681V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-black/N53432096A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-navy-blue/N53432098A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-noise-cancelling-earbuds-true-wireless-earbuds-with-acaa-3-0-dual-dynamic-drivers-for-hi-res-premium-sound-spatial-audio-with-dual-modes-all-new-heart-rate-sensor-white/N53432168A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-black/N70199248V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-blue/N70199247V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-white/N70199249V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-black/N53406571A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-30h-long-playtime-ipx5-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-blue/N53406573A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/by-anker-p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-bluetooth-5-3-30h-playtime-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-pink/N70165130V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-bluetooth-5-3-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-white/N53406572A/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-black/N70260966V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-light-blue/N70260967V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-pink/N70260968V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-white/N70260951V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/soundcore-p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-black/N70087575V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-blue/N70080625V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-white/N70068108V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-black-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-space-black/N70142766V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/redmi-buds-6-pro-55db-anc-with-20-level-modes-3-mic-ai-clear-call-hi-res-audio-wireless-and-supports-ldac-audio-codec-lavender-purple/N70139842V/p/</t>
+  </si>
+  <si>
+    <t>noon.com/saudi-en/xiaomi-redmi-buds-6-pro-glacier-white-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-glacier-white/N70142765V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/buds-6-lite-black-black/N70155849V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/buds-6-lite-white-white/N70155850V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-white/N70100859V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/redmi-buds-6-active-transparent-powder-transparent-pink/N70176634V/p/</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-blue/N70099776V/p/</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +1483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1518,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1282,31 +1894,31 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1317,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1331,38 +1943,38 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1373,10 +1985,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1387,38 +1999,38 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1429,10 +2041,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1443,38 +2055,38 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1485,10 +2097,10 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1499,38 +2111,38 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1541,10 +2153,10 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1555,38 +2167,38 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1597,10 +2209,10 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1611,38 +2223,38 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1653,10 +2265,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1667,38 +2279,38 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
+      <c r="A33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1709,10 +2321,10 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1723,38 +2335,38 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>62</v>
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1765,10 +2377,10 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1779,38 +2391,38 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>44</v>
+      <c r="A40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
+      <c r="A41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1821,10 +2433,10 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1835,38 +2447,38 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>140</v>
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1877,52 +2489,52 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>141</v>
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>142</v>
+      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1933,52 +2545,52 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>84</v>
       </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
+      <c r="D51" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>144</v>
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1989,52 +2601,52 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>145</v>
+      <c r="D55" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>146</v>
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2045,52 +2657,52 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="3" customFormat="1">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>147</v>
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>53</v>
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>148</v>
+      <c r="A61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1">
@@ -2101,52 +2713,52 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>149</v>
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="3" customFormat="1">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" t="s">
-        <v>67</v>
+      <c r="A64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="3" customFormat="1">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>150</v>
+      <c r="A65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="3" customFormat="1">
@@ -2157,52 +2769,52 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="3" customFormat="1">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>151</v>
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="3" customFormat="1">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="3" customFormat="1">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>152</v>
+      <c r="A69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="3" customFormat="1">
@@ -2213,52 +2825,52 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="3" customFormat="1">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>153</v>
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="3" customFormat="1">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" t="s">
-        <v>59</v>
+      <c r="A72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="3" customFormat="1">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>154</v>
+      <c r="A73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="3" customFormat="1">
@@ -2269,52 +2881,52 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="3" customFormat="1">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>155</v>
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="3" customFormat="1">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" t="s">
-        <v>223</v>
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="3" customFormat="1">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>156</v>
+      <c r="A77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1">
@@ -2325,52 +2937,52 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>157</v>
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="3" customFormat="1">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" t="s">
-        <v>179</v>
-      </c>
-      <c r="D80" t="s">
-        <v>225</v>
+      <c r="A80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="3" customFormat="1">
-      <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>158</v>
+      <c r="A81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="3" customFormat="1">
@@ -2381,52 +2993,52 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="3" customFormat="1">
-      <c r="A83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>159</v>
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="3" customFormat="1">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>227</v>
+      <c r="A84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1">
-      <c r="A85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>160</v>
+      <c r="A85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1">
@@ -2437,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="3" customFormat="1">
@@ -2451,66 +3063,66 @@
         <v>9</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="3" customFormat="1">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="3" customFormat="1">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C88" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="3" customFormat="1">
-      <c r="A89" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>162</v>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="3" customFormat="1">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" t="s">
-        <v>230</v>
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="3" customFormat="1">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>163</v>
+      <c r="A91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1">
@@ -2521,10 +3133,10 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="3" customFormat="1">
@@ -2535,66 +3147,66 @@
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="3" customFormat="1">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C94" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>165</v>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" t="s">
-        <v>233</v>
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>166</v>
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2605,10 +3217,10 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2619,38 +3231,38 @@
         <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>168</v>
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>169</v>
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2661,38 +3273,38 @@
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>171</v>
+      <c r="A103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>172</v>
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2703,66 +3315,66 @@
         <v>9</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>174</v>
+      <c r="A106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>175</v>
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>189</v>
-      </c>
-      <c r="D108" t="s">
-        <v>235</v>
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2770,41 +3382,41 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" t="s">
-        <v>238</v>
+      <c r="A111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>193</v>
-      </c>
-      <c r="D112" t="s">
-        <v>239</v>
+      <c r="A112" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2812,41 +3424,41 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>196</v>
-      </c>
-      <c r="D115" t="s">
-        <v>242</v>
+      <c r="A115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2854,41 +3466,41 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>198</v>
-      </c>
-      <c r="D117" t="s">
-        <v>244</v>
+      <c r="A117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>199</v>
-      </c>
-      <c r="D118" t="s">
-        <v>245</v>
+      <c r="A118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2896,41 +3508,41 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" t="s">
-        <v>247</v>
+      <c r="A120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>202</v>
-      </c>
-      <c r="D121" t="s">
-        <v>248</v>
+      <c r="A121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2938,41 +3550,41 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>204</v>
-      </c>
-      <c r="D123" t="s">
-        <v>250</v>
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>205</v>
-      </c>
-      <c r="D124" t="s">
-        <v>251</v>
+      <c r="A124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2980,41 +3592,41 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="D125" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="s">
-        <v>207</v>
-      </c>
-      <c r="D126" t="s">
-        <v>253</v>
+      <c r="A126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>208</v>
-      </c>
-      <c r="D127" t="s">
-        <v>254</v>
+      <c r="A127" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3022,41 +3634,41 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>210</v>
-      </c>
-      <c r="D129" t="s">
-        <v>256</v>
+      <c r="A129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130" t="s">
-        <v>257</v>
+      <c r="A130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3064,41 +3676,41 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="s">
-        <v>213</v>
-      </c>
-      <c r="D132" t="s">
-        <v>259</v>
+      <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" t="s">
-        <v>214</v>
-      </c>
-      <c r="D133" t="s">
-        <v>260</v>
+      <c r="A133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3106,41 +3718,41 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" t="s">
-        <v>262</v>
+      <c r="A135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" t="s">
-        <v>263</v>
+      <c r="A136" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3148,41 +3760,41 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>219</v>
-      </c>
-      <c r="D138" t="s">
-        <v>265</v>
+      <c r="A138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" t="s">
-        <v>266</v>
+      <c r="A139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3190,12 +3802,1552 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>180</v>
+      </c>
+      <c r="D143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>181</v>
+      </c>
+      <c r="D146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>182</v>
+      </c>
+      <c r="D149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>183</v>
+      </c>
+      <c r="D152" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>185</v>
+      </c>
+      <c r="D158" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+      <c r="D167" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>193</v>
+      </c>
+      <c r="D194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>194</v>
+      </c>
+      <c r="D196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>195</v>
+      </c>
+      <c r="D198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D202" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>198</v>
+      </c>
+      <c r="D204" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>199</v>
+      </c>
+      <c r="D206" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>201</v>
+      </c>
+      <c r="D210" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>202</v>
+      </c>
+      <c r="D212" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>204</v>
+      </c>
+      <c r="D216" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>205</v>
+      </c>
+      <c r="D218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>206</v>
+      </c>
+      <c r="D220" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>207</v>
+      </c>
+      <c r="D222" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>208</v>
+      </c>
+      <c r="D224" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>209</v>
+      </c>
+      <c r="D226" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" t="s">
+        <v>210</v>
+      </c>
+      <c r="D228" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" t="s">
+        <v>211</v>
+      </c>
+      <c r="D230" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>212</v>
+      </c>
+      <c r="D232" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>213</v>
+      </c>
+      <c r="D234" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>214</v>
+      </c>
+      <c r="D236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>215</v>
+      </c>
+      <c r="D238" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>216</v>
+      </c>
+      <c r="D240" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>217</v>
+      </c>
+      <c r="D242" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>218</v>
+      </c>
+      <c r="D244" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>219</v>
+      </c>
+      <c r="D246" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>220</v>
+      </c>
+      <c r="D248" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
         <v>221</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D250" t="s">
         <v>267</v>
       </c>
     </row>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852B2E7-E3CD-416E-9E7E-692812DEE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D78CD-F8A2-4091-9BA0-D69ECE45966E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="323">
   <si>
     <t>沙特</t>
   </si>
@@ -841,6 +841,171 @@
   </si>
   <si>
     <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
+  </si>
+  <si>
+    <t>Vmall</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Rose Gold</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Green</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Pink</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Purple</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +1045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +1080,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1855,7 +2029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" s="3" customFormat="1">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +2043,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" s="3" customFormat="1">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +2057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" s="3" customFormat="1">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +2071,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" s="3" customFormat="1">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +2085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" s="3" customFormat="1">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2099,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" s="3" customFormat="1">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +2113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" s="3" customFormat="1">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +2127,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" s="3" customFormat="1">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" s="3" customFormat="1">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +2155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" s="3" customFormat="1">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +2169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" s="3" customFormat="1">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" s="3" customFormat="1">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" s="3" customFormat="1">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" s="3" customFormat="1">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="3" customFormat="1">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="3" customFormat="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="3" customFormat="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="3" customFormat="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2463,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="3" customFormat="1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2477,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2491,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="3" customFormat="1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2505,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="3" customFormat="1">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="3" customFormat="1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2533,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="3" customFormat="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="3" customFormat="1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2561,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="3" customFormat="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2575,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="3" customFormat="1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2589,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1">
+    <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="3" customFormat="1">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2443,7 +2617,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="3" customFormat="1">
+    <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="3" customFormat="1">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2645,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="3" customFormat="1">
+    <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2659,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="3" customFormat="1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2499,7 +2673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="3" customFormat="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="3" customFormat="1">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2701,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="3" customFormat="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -2541,7 +2715,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="3" customFormat="1">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2640,17 +2814,17 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>169</v>
+      <c r="A101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2661,24 +2835,24 @@
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>171</v>
+      <c r="A103" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2689,24 +2863,24 @@
         <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>173</v>
+      <c r="A105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2717,136 +2891,136 @@
         <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="2" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>189</v>
-      </c>
-      <c r="D108" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" t="s">
-        <v>191</v>
-      </c>
-      <c r="D110" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>193</v>
-      </c>
-      <c r="D112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>196</v>
-      </c>
-      <c r="D115" t="s">
-        <v>242</v>
+      <c r="A115" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2857,24 +3031,24 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="s">
-        <v>198</v>
-      </c>
-      <c r="D117" t="s">
-        <v>244</v>
+      <c r="A117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2885,24 +3059,24 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="s">
-        <v>200</v>
-      </c>
-      <c r="D119" t="s">
-        <v>246</v>
+      <c r="A119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2913,24 +3087,24 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>202</v>
-      </c>
-      <c r="D121" t="s">
-        <v>248</v>
+      <c r="A121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2941,24 +3115,24 @@
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="s">
-        <v>204</v>
-      </c>
-      <c r="D123" t="s">
-        <v>250</v>
+      <c r="A123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2969,24 +3143,24 @@
         <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>206</v>
-      </c>
-      <c r="D125" t="s">
-        <v>252</v>
+      <c r="A125" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2997,24 +3171,24 @@
         <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="s">
-        <v>208</v>
-      </c>
-      <c r="D127" t="s">
-        <v>254</v>
+      <c r="A127" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3025,24 +3199,24 @@
         <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>210</v>
-      </c>
-      <c r="D129" t="s">
-        <v>256</v>
+      <c r="A129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3053,24 +3227,24 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" t="s">
-        <v>212</v>
-      </c>
-      <c r="D131" t="s">
-        <v>258</v>
+      <c r="A131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3081,24 +3255,24 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" t="s">
-        <v>214</v>
-      </c>
-      <c r="D133" t="s">
-        <v>260</v>
+      <c r="A133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3109,24 +3283,24 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" t="s">
-        <v>262</v>
+      <c r="A135" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3137,24 +3311,24 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D136" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="s">
-        <v>218</v>
-      </c>
-      <c r="D137" t="s">
-        <v>264</v>
+      <c r="A137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3165,24 +3339,24 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D138" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" t="s">
-        <v>266</v>
+      <c r="A139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3193,14 +3367,396 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>202</v>
+      </c>
+      <c r="D142" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>204</v>
+      </c>
+      <c r="D146" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>205</v>
+      </c>
+      <c r="D148" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>208</v>
+      </c>
+      <c r="D154" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>211</v>
+      </c>
+      <c r="D157" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>213</v>
+      </c>
+      <c r="D159" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>214</v>
+      </c>
+      <c r="D160" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>215</v>
+      </c>
+      <c r="D161" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
+        <v>218</v>
+      </c>
+      <c r="D164" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" t="s">
         <v>221</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D167" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D140" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
+  <autoFilter ref="A1:D167" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D167">
+      <sortCondition ref="B2:B167"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D78CD-F8A2-4091-9BA0-D69ECE45966E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BB249-D105-4F1D-ACD7-9716AF1E5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="325">
   <si>
     <t>沙特</t>
   </si>
@@ -681,9 +681,6 @@
     <t>HONOR MagicBook X 14 i5-13420H，16GB，512GB，Win11，1920×1200</t>
   </si>
   <si>
-    <t>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1200</t>
-  </si>
-  <si>
     <t>LENOVO IdeaPad Slim 5 14 i7-13620H，24GB，1TB，Win11，1920×1200</t>
   </si>
   <si>
@@ -693,326 +690,339 @@
     <t>LENOVO IdeaPad Slim 5 14 Snapdragon X Plus，16GB，1TB，Win11，1920×1200‌</t>
   </si>
   <si>
+    <t>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</t>
+  </si>
+  <si>
+    <t>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</t>
+  </si>
+  <si>
+    <t>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</t>
+  </si>
+  <si>
+    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670881.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670891.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-661473.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654179.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654188.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-xiaomi-pad-7-tablet-pc-653920.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-tablet-pc-641860.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656238.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656224.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656188.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-638524.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/asus-laptops-642879.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654298.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-art-laptops-665780.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-631440.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654289.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-pavilion-laptops-641161.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/asus-asus-vivobook-s16-laptops-666555.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-pro-laptops-657780.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/honor-magicbook-x14-laptops-663706.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-631589.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-634893.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-laptops-632176.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-653502.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-623278.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
+  </si>
+  <si>
+    <t>Vmall</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip Rose Gold</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc Green</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Pink</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 7i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6i Purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 4 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Beige</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 3 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 White</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Blue</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Black</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds SE 2 Purple</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
+  </si>
+  <si>
+    <t>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HUAWEI MateBook D 16 i5-13420H，16GB 512GB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</t>
-  </si>
-  <si>
-    <t>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</t>
-  </si>
-  <si>
-    <t>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</t>
-  </si>
-  <si>
-    <t>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670881.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670891.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-661473.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654179.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654188.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/xiaomi-xiaomi-pad-7-tablet-pc-653920.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-tablet-pc-641860.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656238.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656224.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656188.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-638524.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/asus-laptops-642879.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654298.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicbook-art-laptops-665780.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-631440.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654289.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-pavilion-laptops-641161.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/asus-asus-vivobook-s16-laptops-666555.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicbook-pro-laptops-657780.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/honor-magicbook-x14-laptops-663706.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-631589.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-634893.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/huawei-laptops-632176.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-653502.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-623278.html</t>
-  </si>
-  <si>
-    <t>https://www.jarir.com/sa-en/hp-laptops-654667.html</t>
-  </si>
-  <si>
-    <t>Vmall</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip Purple</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip Beige</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip Rose Gold</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip2 Blue</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip2 Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeClip2 White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6 Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6 Purple</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6 White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeArc Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeArc White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeArc Green</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 7i Pink</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 7i Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 7i White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6i White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6i Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds 6i Purple</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 4 White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 4 Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 3 Beige</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 3 Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 2 White</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 2 Blue</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 2 Black</t>
-  </si>
-  <si>
-    <t>HUAWEI Huawei FreeBuds SE 2 Purple</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUAWEI MateBook D 16 i5-12450H，16GB 512GB，Win11，1920×1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-matebook-d-laptops-674467.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1042,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1064,12 +1083,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,9 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,17 +1425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="5.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
+    <col min="3" max="3" width="80.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2446,7 +2472,7 @@
         <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2474,7 +2500,7 @@
         <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2502,7 +2528,7 @@
         <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2530,7 +2556,7 @@
         <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2558,7 +2584,7 @@
         <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2586,7 +2612,7 @@
         <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2614,7 +2640,7 @@
         <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2642,7 +2668,7 @@
         <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2670,7 +2696,7 @@
         <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2698,7 +2724,7 @@
         <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2726,7 +2752,7 @@
         <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2754,7 +2780,7 @@
         <v>187</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2782,7 +2808,7 @@
         <v>188</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2818,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2846,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2874,13 +2900,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2902,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2930,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2958,13 +2984,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2986,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3014,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3034,7 +3060,7 @@
         <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3042,13 +3068,13 @@
         <v>0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3062,7 +3088,7 @@
         <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3070,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3090,7 +3116,7 @@
         <v>191</v>
       </c>
       <c r="D120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3098,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3118,7 +3144,7 @@
         <v>192</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3126,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3146,7 +3172,7 @@
         <v>193</v>
       </c>
       <c r="D124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3154,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3174,7 +3200,7 @@
         <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3182,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3202,7 +3228,7 @@
         <v>195</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3210,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3230,7 +3256,7 @@
         <v>196</v>
       </c>
       <c r="D130" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3238,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3258,7 +3284,7 @@
         <v>197</v>
       </c>
       <c r="D132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3266,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3286,7 +3312,7 @@
         <v>198</v>
       </c>
       <c r="D134" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3294,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3314,7 +3340,7 @@
         <v>199</v>
       </c>
       <c r="D136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3322,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3342,7 +3368,7 @@
         <v>200</v>
       </c>
       <c r="D138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3350,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3370,7 +3396,7 @@
         <v>201</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3378,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3398,7 +3424,7 @@
         <v>202</v>
       </c>
       <c r="D142" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3406,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3426,7 +3452,7 @@
         <v>203</v>
       </c>
       <c r="D144" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3434,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="D145" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3454,7 +3480,7 @@
         <v>204</v>
       </c>
       <c r="D146" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3462,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3482,7 +3508,7 @@
         <v>205</v>
       </c>
       <c r="D148" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3490,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3510,7 +3536,7 @@
         <v>206</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3518,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3538,7 +3564,7 @@
         <v>207</v>
       </c>
       <c r="D152" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3546,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3566,7 +3592,7 @@
         <v>208</v>
       </c>
       <c r="D154" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3580,7 +3606,7 @@
         <v>209</v>
       </c>
       <c r="D155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3594,7 +3620,7 @@
         <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3608,7 +3634,7 @@
         <v>211</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3622,7 +3648,7 @@
         <v>212</v>
       </c>
       <c r="D158" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3636,7 +3662,7 @@
         <v>213</v>
       </c>
       <c r="D159" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3647,10 +3673,10 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="D160" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3661,10 +3687,10 @@
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D161" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3675,10 +3701,10 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D162" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3689,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3703,10 +3729,10 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3717,10 +3743,10 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>219</v>
-      </c>
-      <c r="D165" t="s">
-        <v>265</v>
+        <v>322</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3731,10 +3757,10 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D166" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3745,20 +3771,32 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D167" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D167">
-      <sortCondition ref="B2:B167"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D165" r:id="rId1" xr:uid="{651E82FF-42BC-4BC3-8290-E15493103BF3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
 </worksheet>
 </file>
--- a/prodinfo/mea/sa/source_sa.xlsx
+++ b/prodinfo/mea/sa/source_sa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BB249-D105-4F1D-ACD7-9716AF1E5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF96528-34D0-4833-838E-48BB4A4151B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="420">
   <si>
     <t>沙特</t>
   </si>
@@ -1016,6 +1016,291 @@
   <si>
     <t>https://www.jarir.com/sa-en/huawei-matebook-d-laptops-674467.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip purple</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-628906.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-628907.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-634118.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freeclip-headsets-649288.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672751.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672748.html</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 white</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672750.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657490.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657491.html</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 white</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657492.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655420.html</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc white</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655426.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655428.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666314.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666313.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666312.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-6i-headsets-638068.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-6i-headsets-638067.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-665613.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-665612.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-650173.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-650172.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-622213.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-622214.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-se-2-headsets-640219.html</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-632924.html</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open Diamond</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-648601.html</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open white smoke</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-632922.html</t>
+  </si>
+  <si>
+    <t>BOSE Bose QC ULTRA  White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-662085.html</t>
+  </si>
+  <si>
+    <t>BOSE Bose QC ULTRA  Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-662084.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Pro White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-3-pro-headsets-638950.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Pro Silver</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-638852.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-3-headsets-638951.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds3 Silver</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-638851.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds 3FE Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-667192.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds 3FE Grey</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-667191.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds Core Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-core-headsets-661303.html</t>
+  </si>
+  <si>
+    <t>SAMSUNG Samsung Galaxy Buds Core White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-core-headsets-661304.html</t>
+  </si>
+  <si>
+    <t>JBL JBL Tune Beam 2 Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646630.html</t>
+  </si>
+  <si>
+    <t>JBL JBL Live pro 2 Blue</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-616825.html</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646644.html</t>
+  </si>
+  <si>
+    <t>JBL JBL WAVE BEAM 2 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646646.html</t>
+  </si>
+  <si>
+    <t>APPLE AirPods Pro 2 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-pro-2nd-gen-headsets-623511.html</t>
+  </si>
+  <si>
+    <t>APPLE AirPods Pro 3 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-pro-3-headsets-666611.html</t>
+  </si>
+  <si>
+    <t>APPLE AirPods 4 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-4-headsets-642550.html</t>
+  </si>
+  <si>
+    <t>APPLE AirPods 4 ANC White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-4-headsets-642561.html</t>
+  </si>
+  <si>
+    <t>SONY Sony WF1000XM5 Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-621218.html</t>
+  </si>
+  <si>
+    <t>SONY Sony WF1000XM5 Silver</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-621220.html</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617552.html</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617553.html</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 Green</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617554.html</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4 Pro Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-641868.html</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 4NC  Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-610988.html</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 5 Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-657777.html</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore Liberty 5 White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-658393.html</t>
+  </si>
+  <si>
+    <t>SOUNDCORE Soundcore P40i Blue</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-626390.html</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi BUDS 6 lite Black</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-headsets-643148.html</t>
+  </si>
+  <si>
+    <t>XIAOMI Xiaomi BUDS 6 lite White</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-headsets-643240.html</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -3791,6 +4076,818 @@
         <v>265</v>
       </c>
     </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>325</v>
+      </c>
+      <c r="D169" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
+        <v>268</v>
+      </c>
+      <c r="D170" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>270</v>
+      </c>
+      <c r="D172" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>271</v>
+      </c>
+      <c r="D173" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D174" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>332</v>
+      </c>
+      <c r="D175" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>274</v>
+      </c>
+      <c r="D176" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>275</v>
+      </c>
+      <c r="D177" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>336</v>
+      </c>
+      <c r="D178" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>277</v>
+      </c>
+      <c r="D179" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>339</v>
+      </c>
+      <c r="D180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>279</v>
+      </c>
+      <c r="D181" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
+        <v>280</v>
+      </c>
+      <c r="D182" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>281</v>
+      </c>
+      <c r="D183" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
+        <v>282</v>
+      </c>
+      <c r="D184" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="s">
+        <v>283</v>
+      </c>
+      <c r="D185" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>284</v>
+      </c>
+      <c r="D186" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>286</v>
+      </c>
+      <c r="D187" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>287</v>
+      </c>
+      <c r="D188" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>288</v>
+      </c>
+      <c r="D189" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>289</v>
+      </c>
+      <c r="D190" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>290</v>
+      </c>
+      <c r="D191" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" t="s">
+        <v>291</v>
+      </c>
+      <c r="D192" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>292</v>
+      </c>
+      <c r="D193" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>354</v>
+      </c>
+      <c r="D194" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>356</v>
+      </c>
+      <c r="D195" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>358</v>
+      </c>
+      <c r="D196" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>360</v>
+      </c>
+      <c r="D197" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>362</v>
+      </c>
+      <c r="D198" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>364</v>
+      </c>
+      <c r="D199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>366</v>
+      </c>
+      <c r="D200" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>368</v>
+      </c>
+      <c r="D201" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" t="s">
+        <v>370</v>
+      </c>
+      <c r="D202" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>372</v>
+      </c>
+      <c r="D203" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>374</v>
+      </c>
+      <c r="D204" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>376</v>
+      </c>
+      <c r="D205" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" t="s">
+        <v>378</v>
+      </c>
+      <c r="D206" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" t="s">
+        <v>380</v>
+      </c>
+      <c r="D207" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>382</v>
+      </c>
+      <c r="D208" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" t="s">
+        <v>384</v>
+      </c>
+      <c r="D209" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>386</v>
+      </c>
+      <c r="D210" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>388</v>
+      </c>
+      <c r="D211" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" t="s">
+        <v>390</v>
+      </c>
+      <c r="D212" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>392</v>
+      </c>
+      <c r="D213" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>396</v>
+      </c>
+      <c r="D215" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>398</v>
+      </c>
+      <c r="D216" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>400</v>
+      </c>
+      <c r="D217" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>402</v>
+      </c>
+      <c r="D218" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>404</v>
+      </c>
+      <c r="D219" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>406</v>
+      </c>
+      <c r="D220" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="s">
+        <v>408</v>
+      </c>
+      <c r="D221" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" t="s">
+        <v>410</v>
+      </c>
+      <c r="D222" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" t="s">
+        <v>412</v>
+      </c>
+      <c r="D223" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" t="s">
+        <v>414</v>
+      </c>
+      <c r="D224" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>416</v>
+      </c>
+      <c r="D225" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>418</v>
+      </c>
+      <c r="D226" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
